--- a/data_year/zb/科技/国外主要检索工具收录我国科技论文按学科分布/按学科分SCI收录科技论文数.xlsx
+++ b/data_year/zb/科技/国外主要检索工具收录我国科技论文按学科分布/按学科分SCI收录科技论文数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP16"/>
+  <dimension ref="A1:AP12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,1930 +643,1420 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>281</v>
       </c>
       <c r="C2" t="n">
-        <v>2393</v>
+        <v>7767</v>
       </c>
       <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>642</v>
+      </c>
+      <c r="F2" t="n">
+        <v>93</v>
+      </c>
+      <c r="G2" t="n">
+        <v>332</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1996</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1516</v>
+      </c>
+      <c r="J2" t="n">
+        <v>444</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>30898</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1413</v>
+      </c>
+      <c r="N2" t="n">
+        <v>791</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4084</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5269</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>836</v>
+      </c>
+      <c r="R2" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="n">
-        <v>292</v>
-      </c>
-      <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>253</v>
-      </c>
-      <c r="H2" t="n">
-        <v>678</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1132</v>
-      </c>
-      <c r="J2" t="n">
-        <v>369</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1502</v>
-      </c>
-      <c r="L2" t="n">
-        <v>18656</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1006</v>
-      </c>
-      <c r="N2" t="n">
-        <v>352</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1989</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1698</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>339</v>
-      </c>
-      <c r="R2" t="n">
-        <v>24</v>
-      </c>
       <c r="S2" t="n">
-        <v>160</v>
+        <v>1311</v>
       </c>
       <c r="T2" t="n">
-        <v>3063</v>
+        <v>6211</v>
       </c>
       <c r="U2" t="n">
-        <v>968</v>
+        <v>1652</v>
       </c>
       <c r="V2" t="n">
-        <v>6657</v>
+        <v>8653</v>
       </c>
       <c r="W2" t="n">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="X2" t="n">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="Y2" t="n">
-        <v>192</v>
+        <v>345</v>
       </c>
       <c r="Z2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>2</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>9351</v>
+        <v>14707</v>
       </c>
       <c r="AC2" t="n">
-        <v>981</v>
+        <v>3729</v>
       </c>
       <c r="AD2" t="n">
-        <v>4963</v>
+        <v>16289</v>
       </c>
       <c r="AE2" t="n">
-        <v>444</v>
+        <v>5070</v>
       </c>
       <c r="AF2" t="n">
-        <v>193</v>
+        <v>573</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="n">
-        <v>63150</v>
+        <v>121530</v>
       </c>
       <c r="AI2" t="n">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="AJ2" t="n">
-        <v>119</v>
+        <v>941</v>
       </c>
       <c r="AK2" t="n">
-        <v>65</v>
+        <v>318</v>
       </c>
       <c r="AL2" t="n">
-        <v>864</v>
+        <v>1134</v>
       </c>
       <c r="AM2" t="n">
-        <v>3844</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
+        <v>2241</v>
+      </c>
+      <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="n">
-        <v>300</v>
+        <v>718</v>
       </c>
       <c r="AP2" t="n">
-        <v>89</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>355</v>
+      </c>
       <c r="C3" t="n">
-        <v>3196</v>
+        <v>10591</v>
       </c>
       <c r="D3" t="n">
+        <v>206</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1039</v>
+      </c>
+      <c r="F3" t="n">
+        <v>41</v>
+      </c>
+      <c r="G3" t="n">
+        <v>117</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2819</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3665</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1170</v>
+      </c>
+      <c r="K3" t="n">
+        <v>343</v>
+      </c>
+      <c r="L3" t="n">
+        <v>26628</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2292</v>
+      </c>
+      <c r="N3" t="n">
+        <v>500</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3641</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5947</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1003</v>
+      </c>
+      <c r="R3" t="n">
+        <v>34</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2141</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6583</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1668</v>
+      </c>
+      <c r="V3" t="n">
+        <v>12512</v>
+      </c>
+      <c r="W3" t="n">
+        <v>188</v>
+      </c>
+      <c r="X3" t="n">
+        <v>238</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>720</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>588</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>16677</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4178</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>14320</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>3383</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>384</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>99</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>136445</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>431</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2079</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>226</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>4167</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>3236</v>
+      </c>
+      <c r="AN3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>274</v>
-      </c>
-      <c r="G3" t="n">
-        <v>92</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1166</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1218</v>
-      </c>
-      <c r="J3" t="n">
-        <v>224</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11</v>
-      </c>
-      <c r="L3" t="n">
-        <v>20317</v>
-      </c>
-      <c r="M3" t="n">
-        <v>936</v>
-      </c>
-      <c r="N3" t="n">
-        <v>351</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2044</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1692</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>622</v>
-      </c>
-      <c r="R3" t="n">
-        <v>7</v>
-      </c>
-      <c r="S3" t="n">
-        <v>651</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3670</v>
-      </c>
-      <c r="U3" t="n">
-        <v>763</v>
-      </c>
-      <c r="V3" t="n">
-        <v>5929</v>
-      </c>
-      <c r="W3" t="n">
-        <v>33</v>
-      </c>
-      <c r="X3" t="n">
-        <v>87</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>171</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="n">
-        <v>10239</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1516</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7076</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>2468</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>71351</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>155</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>333</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>505</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>5157</v>
-      </c>
-      <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="n">
-        <v>156</v>
+        <v>925</v>
       </c>
       <c r="AP3" t="n">
-        <v>122</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>813</v>
       </c>
       <c r="C4" t="n">
-        <v>4831</v>
+        <v>14757</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="E4" t="n">
-        <v>355</v>
+        <v>1228</v>
       </c>
       <c r="F4" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G4" t="n">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="H4" t="n">
-        <v>993</v>
+        <v>2280</v>
       </c>
       <c r="I4" t="n">
-        <v>1137</v>
+        <v>1698</v>
       </c>
       <c r="J4" t="n">
-        <v>270</v>
+        <v>1650</v>
       </c>
       <c r="K4" t="n">
-        <v>38</v>
+        <v>809</v>
       </c>
       <c r="L4" t="n">
-        <v>23356</v>
+        <v>33384</v>
       </c>
       <c r="M4" t="n">
-        <v>951</v>
+        <v>2366</v>
       </c>
       <c r="N4" t="n">
-        <v>428</v>
+        <v>793</v>
       </c>
       <c r="O4" t="n">
-        <v>3039</v>
+        <v>4987</v>
       </c>
       <c r="P4" t="n">
-        <v>2077</v>
+        <v>7478</v>
       </c>
       <c r="Q4" t="n">
-        <v>611</v>
+        <v>1092</v>
       </c>
       <c r="R4" t="n">
-        <v>18</v>
+        <v>361</v>
       </c>
       <c r="S4" t="n">
-        <v>65</v>
+        <v>541</v>
       </c>
       <c r="T4" t="n">
-        <v>4565</v>
+        <v>7190</v>
       </c>
       <c r="U4" t="n">
-        <v>1210</v>
+        <v>1656</v>
       </c>
       <c r="V4" t="n">
-        <v>7501</v>
+        <v>13242</v>
       </c>
       <c r="W4" t="n">
-        <v>64</v>
+        <v>279</v>
       </c>
       <c r="X4" t="n">
-        <v>188</v>
+        <v>333</v>
       </c>
       <c r="Y4" t="n">
-        <v>276</v>
+        <v>499</v>
       </c>
       <c r="Z4" t="n">
-        <v>53</v>
+        <v>841</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
-        <v>10966</v>
+        <v>18822</v>
       </c>
       <c r="AC4" t="n">
-        <v>1797</v>
+        <v>3842</v>
       </c>
       <c r="AD4" t="n">
-        <v>7667</v>
+        <v>16731</v>
       </c>
       <c r="AE4" t="n">
-        <v>2847</v>
+        <v>5447</v>
       </c>
       <c r="AF4" t="n">
-        <v>63</v>
+        <v>989</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="AH4" t="n">
-        <v>79669</v>
+        <v>158615</v>
       </c>
       <c r="AI4" t="n">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="AJ4" t="n">
-        <v>398</v>
+        <v>2275</v>
       </c>
       <c r="AK4" t="n">
-        <v>108</v>
+        <v>299</v>
       </c>
       <c r="AL4" t="n">
-        <v>1102</v>
+        <v>3739</v>
       </c>
       <c r="AM4" t="n">
-        <v>1770</v>
+        <v>5051</v>
       </c>
       <c r="AN4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
-        <v>361</v>
+        <v>1094</v>
       </c>
       <c r="AP4" t="n">
-        <v>203</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1014</v>
+      </c>
       <c r="C5" t="n">
-        <v>6068</v>
+        <v>18632</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>376</v>
       </c>
       <c r="E5" t="n">
-        <v>312</v>
+        <v>701</v>
       </c>
       <c r="F5" t="n">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="G5" t="n">
-        <v>525</v>
+        <v>173</v>
       </c>
       <c r="H5" t="n">
-        <v>1707</v>
+        <v>2561</v>
       </c>
       <c r="I5" t="n">
-        <v>1143</v>
+        <v>1840</v>
       </c>
       <c r="J5" t="n">
-        <v>473</v>
+        <v>1819</v>
       </c>
       <c r="K5" t="n">
-        <v>25</v>
+        <v>728</v>
       </c>
       <c r="L5" t="n">
-        <v>23734</v>
+        <v>36201</v>
       </c>
       <c r="M5" t="n">
-        <v>1617</v>
+        <v>2637</v>
       </c>
       <c r="N5" t="n">
-        <v>484</v>
+        <v>1060</v>
       </c>
       <c r="O5" t="n">
-        <v>3351</v>
+        <v>6689</v>
       </c>
       <c r="P5" t="n">
-        <v>4220</v>
+        <v>9411</v>
       </c>
       <c r="Q5" t="n">
-        <v>667</v>
+        <v>1201</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>4820</v>
       </c>
       <c r="S5" t="n">
-        <v>411</v>
+        <v>725</v>
       </c>
       <c r="T5" t="n">
-        <v>5281</v>
+        <v>8934</v>
       </c>
       <c r="U5" t="n">
-        <v>1472</v>
+        <v>2761</v>
       </c>
       <c r="V5" t="n">
-        <v>7516</v>
+        <v>16272</v>
       </c>
       <c r="W5" t="n">
-        <v>92</v>
+        <v>368</v>
       </c>
       <c r="X5" t="n">
-        <v>198</v>
+        <v>450</v>
       </c>
       <c r="Y5" t="n">
-        <v>318</v>
+        <v>788</v>
       </c>
       <c r="Z5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA5" t="inlineStr"/>
+        <v>864</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>9</v>
+      </c>
       <c r="AB5" t="n">
-        <v>13426</v>
+        <v>24453</v>
       </c>
       <c r="AC5" t="n">
-        <v>2439</v>
+        <v>22</v>
       </c>
       <c r="AD5" t="n">
-        <v>10081</v>
+        <v>21518</v>
       </c>
       <c r="AE5" t="n">
-        <v>3302</v>
+        <v>6584</v>
       </c>
       <c r="AF5" t="n">
-        <v>104</v>
+        <v>895</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="AH5" t="n">
-        <v>95506</v>
+        <v>192697</v>
       </c>
       <c r="AI5" t="n">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="AJ5" t="n">
-        <v>778</v>
+        <v>3013</v>
       </c>
       <c r="AK5" t="n">
-        <v>371</v>
+        <v>451</v>
       </c>
       <c r="AL5" t="n">
-        <v>1788</v>
+        <v>4149</v>
       </c>
       <c r="AM5" t="n">
-        <v>2040</v>
+        <v>6665</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>454</v>
+        <v>1444</v>
       </c>
       <c r="AP5" t="n">
-        <v>649</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155</v>
+        <v>930</v>
       </c>
       <c r="C6" t="n">
-        <v>7015</v>
+        <v>31014</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>512</v>
       </c>
       <c r="E6" t="n">
-        <v>447</v>
+        <v>906</v>
       </c>
       <c r="F6" t="n">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="G6" t="n">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="H6" t="n">
-        <v>1273</v>
+        <v>2732</v>
       </c>
       <c r="I6" t="n">
-        <v>1226</v>
+        <v>1966</v>
       </c>
       <c r="J6" t="n">
-        <v>514</v>
+        <v>2154</v>
       </c>
       <c r="K6" t="n">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="L6" t="n">
-        <v>28799</v>
+        <v>41378</v>
       </c>
       <c r="M6" t="n">
-        <v>1426</v>
+        <v>3329</v>
       </c>
       <c r="N6" t="n">
-        <v>727</v>
+        <v>1462</v>
       </c>
       <c r="O6" t="n">
-        <v>3509</v>
+        <v>8095</v>
       </c>
       <c r="P6" t="n">
-        <v>4880</v>
+        <v>11589</v>
       </c>
       <c r="Q6" t="n">
-        <v>822</v>
+        <v>1324</v>
       </c>
       <c r="R6" t="n">
-        <v>3288</v>
+        <v>91</v>
       </c>
       <c r="S6" t="n">
-        <v>1478</v>
+        <v>1854</v>
       </c>
       <c r="T6" t="n">
-        <v>5620</v>
+        <v>9410</v>
       </c>
       <c r="U6" t="n">
-        <v>1504</v>
+        <v>3038</v>
       </c>
       <c r="V6" t="n">
-        <v>6860</v>
+        <v>17879</v>
       </c>
       <c r="W6" t="n">
-        <v>93</v>
+        <v>435</v>
       </c>
       <c r="X6" t="n">
-        <v>372</v>
+        <v>710</v>
       </c>
       <c r="Y6" t="n">
-        <v>265</v>
+        <v>765</v>
       </c>
       <c r="Z6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>2</v>
-      </c>
+        <v>1092</v>
+      </c>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="n">
-        <v>13927</v>
+        <v>26520</v>
       </c>
       <c r="AC6" t="n">
-        <v>3</v>
+        <v>5235</v>
       </c>
       <c r="AD6" t="n">
-        <v>13122</v>
+        <v>24885</v>
       </c>
       <c r="AE6" t="n">
-        <v>4324</v>
+        <v>9781</v>
       </c>
       <c r="AF6" t="n">
-        <v>544</v>
+        <v>848</v>
       </c>
       <c r="AG6" t="n">
-        <v>72</v>
+        <v>408</v>
       </c>
       <c r="AH6" t="n">
-        <v>108806</v>
+        <v>235139</v>
       </c>
       <c r="AI6" t="n">
-        <v>191</v>
+        <v>697</v>
       </c>
       <c r="AJ6" t="n">
-        <v>759</v>
+        <v>4486</v>
       </c>
       <c r="AK6" t="n">
-        <v>283</v>
+        <v>654</v>
       </c>
       <c r="AL6" t="n">
-        <v>1312</v>
+        <v>5949</v>
       </c>
       <c r="AM6" t="n">
-        <v>2736</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3</v>
-      </c>
+        <v>7490</v>
+      </c>
+      <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>573</v>
+        <v>2441</v>
       </c>
       <c r="AP6" t="n">
-        <v>391</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>281</v>
+        <v>1108</v>
       </c>
       <c r="C7" t="n">
-        <v>7767</v>
+        <v>30696</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>537</v>
       </c>
       <c r="E7" t="n">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="F7" t="n">
-        <v>93</v>
+        <v>232</v>
       </c>
       <c r="G7" t="n">
-        <v>332</v>
+        <v>245</v>
       </c>
       <c r="H7" t="n">
-        <v>1996</v>
+        <v>3316</v>
       </c>
       <c r="I7" t="n">
-        <v>1516</v>
+        <v>1949</v>
       </c>
       <c r="J7" t="n">
-        <v>444</v>
+        <v>2394</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>382</v>
       </c>
       <c r="L7" t="n">
-        <v>30898</v>
+        <v>44723</v>
       </c>
       <c r="M7" t="n">
-        <v>1413</v>
+        <v>4081</v>
       </c>
       <c r="N7" t="n">
-        <v>791</v>
+        <v>1831</v>
       </c>
       <c r="O7" t="n">
-        <v>4084</v>
+        <v>9633</v>
       </c>
       <c r="P7" t="n">
-        <v>5269</v>
+        <v>18283</v>
       </c>
       <c r="Q7" t="n">
-        <v>836</v>
+        <v>1447</v>
       </c>
       <c r="R7" t="n">
+        <v>89</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1959</v>
+      </c>
+      <c r="T7" t="n">
+        <v>8693</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3443</v>
+      </c>
+      <c r="V7" t="n">
+        <v>20060</v>
+      </c>
+      <c r="W7" t="n">
+        <v>617</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1220</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1044</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1205</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>27490</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7143</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>30516</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>10460</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1305</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>539</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>265469</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>727</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>5094</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>731</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>7509</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>9782</v>
+      </c>
+      <c r="AN7" t="n">
         <v>4</v>
       </c>
-      <c r="S7" t="n">
-        <v>1311</v>
-      </c>
-      <c r="T7" t="n">
-        <v>6211</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1652</v>
-      </c>
-      <c r="V7" t="n">
-        <v>8653</v>
-      </c>
-      <c r="W7" t="n">
-        <v>126</v>
-      </c>
-      <c r="X7" t="n">
-        <v>172</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>345</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>73</v>
-      </c>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="n">
-        <v>14707</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>3729</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>16289</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>5070</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>573</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>77</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>121530</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>185</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>941</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>318</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1134</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>2241</v>
-      </c>
-      <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="n">
-        <v>718</v>
+        <v>2608</v>
       </c>
       <c r="AP7" t="n">
-        <v>611</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>355</v>
+        <v>1040</v>
       </c>
       <c r="C8" t="n">
-        <v>10591</v>
+        <v>32109</v>
       </c>
       <c r="D8" t="n">
-        <v>206</v>
+        <v>690</v>
       </c>
       <c r="E8" t="n">
-        <v>1039</v>
+        <v>770</v>
       </c>
       <c r="F8" t="n">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="G8" t="n">
-        <v>117</v>
+        <v>277</v>
       </c>
       <c r="H8" t="n">
-        <v>2819</v>
+        <v>3775</v>
       </c>
       <c r="I8" t="n">
-        <v>3665</v>
+        <v>1676</v>
       </c>
       <c r="J8" t="n">
-        <v>1170</v>
+        <v>2743</v>
       </c>
       <c r="K8" t="n">
-        <v>343</v>
+        <v>754</v>
       </c>
       <c r="L8" t="n">
-        <v>26628</v>
+        <v>45503</v>
       </c>
       <c r="M8" t="n">
-        <v>2292</v>
+        <v>4500</v>
       </c>
       <c r="N8" t="n">
-        <v>500</v>
+        <v>2460</v>
       </c>
       <c r="O8" t="n">
-        <v>3641</v>
+        <v>10537</v>
       </c>
       <c r="P8" t="n">
-        <v>5947</v>
+        <v>19260</v>
       </c>
       <c r="Q8" t="n">
-        <v>1003</v>
+        <v>1544</v>
       </c>
       <c r="R8" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="S8" t="n">
-        <v>2141</v>
+        <v>1488</v>
       </c>
       <c r="T8" t="n">
-        <v>6583</v>
+        <v>8746</v>
       </c>
       <c r="U8" t="n">
-        <v>1668</v>
+        <v>4253</v>
       </c>
       <c r="V8" t="n">
-        <v>12512</v>
+        <v>21993</v>
       </c>
       <c r="W8" t="n">
-        <v>188</v>
+        <v>688</v>
       </c>
       <c r="X8" t="n">
-        <v>238</v>
+        <v>1246</v>
       </c>
       <c r="Y8" t="n">
-        <v>720</v>
+        <v>1285</v>
       </c>
       <c r="Z8" t="n">
-        <v>588</v>
+        <v>1803</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB8" t="n">
-        <v>16677</v>
+        <v>29470</v>
       </c>
       <c r="AC8" t="n">
-        <v>4178</v>
+        <v>8667</v>
       </c>
       <c r="AD8" t="n">
-        <v>14320</v>
+        <v>34657</v>
       </c>
       <c r="AE8" t="n">
-        <v>3383</v>
+        <v>13012</v>
       </c>
       <c r="AF8" t="n">
-        <v>384</v>
+        <v>1387</v>
       </c>
       <c r="AG8" t="n">
-        <v>99</v>
+        <v>377</v>
       </c>
       <c r="AH8" t="n">
-        <v>136445</v>
+        <v>290647</v>
       </c>
       <c r="AI8" t="n">
-        <v>431</v>
+        <v>830</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2079</v>
+        <v>6476</v>
       </c>
       <c r="AK8" t="n">
-        <v>226</v>
+        <v>898</v>
       </c>
       <c r="AL8" t="n">
-        <v>4167</v>
+        <v>8839</v>
       </c>
       <c r="AM8" t="n">
+        <v>11401</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO8" t="n">
         <v>3236</v>
       </c>
-      <c r="AN8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>925</v>
-      </c>
       <c r="AP8" t="n">
-        <v>1306</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>813</v>
+        <v>1031</v>
       </c>
       <c r="C9" t="n">
-        <v>14757</v>
+        <v>34226</v>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>736</v>
       </c>
       <c r="E9" t="n">
-        <v>1228</v>
+        <v>853</v>
       </c>
       <c r="F9" t="n">
-        <v>47</v>
+        <v>347</v>
       </c>
       <c r="G9" t="n">
-        <v>106</v>
+        <v>466</v>
       </c>
       <c r="H9" t="n">
-        <v>2280</v>
+        <v>4263</v>
       </c>
       <c r="I9" t="n">
-        <v>1698</v>
+        <v>1646</v>
       </c>
       <c r="J9" t="n">
-        <v>1650</v>
+        <v>3135</v>
       </c>
       <c r="K9" t="n">
-        <v>809</v>
+        <v>997</v>
       </c>
       <c r="L9" t="n">
-        <v>33384</v>
+        <v>47224</v>
       </c>
       <c r="M9" t="n">
-        <v>2366</v>
+        <v>7975</v>
       </c>
       <c r="N9" t="n">
-        <v>793</v>
+        <v>3102</v>
       </c>
       <c r="O9" t="n">
-        <v>4987</v>
+        <v>12547</v>
       </c>
       <c r="P9" t="n">
-        <v>7478</v>
+        <v>21297</v>
       </c>
       <c r="Q9" t="n">
-        <v>1092</v>
+        <v>1595</v>
       </c>
       <c r="R9" t="n">
-        <v>361</v>
+        <v>126</v>
       </c>
       <c r="S9" t="n">
-        <v>541</v>
+        <v>1623</v>
       </c>
       <c r="T9" t="n">
-        <v>7190</v>
+        <v>9275</v>
       </c>
       <c r="U9" t="n">
-        <v>1656</v>
+        <v>4542</v>
       </c>
       <c r="V9" t="n">
-        <v>13242</v>
+        <v>24328</v>
       </c>
       <c r="W9" t="n">
-        <v>279</v>
+        <v>841</v>
       </c>
       <c r="X9" t="n">
-        <v>333</v>
+        <v>1422</v>
       </c>
       <c r="Y9" t="n">
-        <v>499</v>
+        <v>1478</v>
       </c>
       <c r="Z9" t="n">
-        <v>841</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
+        <v>1367</v>
+      </c>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="n">
-        <v>18822</v>
+        <v>31417</v>
       </c>
       <c r="AC9" t="n">
-        <v>3842</v>
+        <v>10475</v>
       </c>
       <c r="AD9" t="n">
-        <v>16731</v>
+        <v>37751</v>
       </c>
       <c r="AE9" t="n">
-        <v>5447</v>
+        <v>16663</v>
       </c>
       <c r="AF9" t="n">
-        <v>989</v>
+        <v>1390</v>
       </c>
       <c r="AG9" t="n">
-        <v>85</v>
+        <v>392</v>
       </c>
       <c r="AH9" t="n">
-        <v>158615</v>
+        <v>323878</v>
       </c>
       <c r="AI9" t="n">
-        <v>157</v>
+        <v>816</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2275</v>
+        <v>7370</v>
       </c>
       <c r="AK9" t="n">
-        <v>299</v>
+        <v>1027</v>
       </c>
       <c r="AL9" t="n">
-        <v>3739</v>
+        <v>9782</v>
       </c>
       <c r="AM9" t="n">
-        <v>5051</v>
+        <v>12049</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>1096</v>
       </c>
       <c r="AO9" t="n">
-        <v>1094</v>
+        <v>3188</v>
       </c>
       <c r="AP9" t="n">
-        <v>1556</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1014</v>
+        <v>1036</v>
       </c>
       <c r="C10" t="n">
-        <v>18632</v>
+        <v>41975</v>
       </c>
       <c r="D10" t="n">
-        <v>376</v>
+        <v>1004</v>
       </c>
       <c r="E10" t="n">
-        <v>701</v>
+        <v>954</v>
       </c>
       <c r="F10" t="n">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="G10" t="n">
-        <v>173</v>
+        <v>636</v>
       </c>
       <c r="H10" t="n">
-        <v>2561</v>
+        <v>4346</v>
       </c>
       <c r="I10" t="n">
-        <v>1840</v>
+        <v>1772</v>
       </c>
       <c r="J10" t="n">
-        <v>1819</v>
+        <v>3799</v>
       </c>
       <c r="K10" t="n">
-        <v>728</v>
+        <v>1202</v>
       </c>
       <c r="L10" t="n">
-        <v>36201</v>
+        <v>52582</v>
       </c>
       <c r="M10" t="n">
-        <v>2637</v>
+        <v>8147</v>
       </c>
       <c r="N10" t="n">
-        <v>1060</v>
+        <v>4902</v>
       </c>
       <c r="O10" t="n">
-        <v>6689</v>
+        <v>14585</v>
       </c>
       <c r="P10" t="n">
-        <v>9411</v>
+        <v>20689</v>
       </c>
       <c r="Q10" t="n">
-        <v>1201</v>
+        <v>1816</v>
       </c>
       <c r="R10" t="n">
-        <v>4820</v>
+        <v>161</v>
       </c>
       <c r="S10" t="n">
-        <v>725</v>
+        <v>2106</v>
       </c>
       <c r="T10" t="n">
-        <v>8934</v>
+        <v>10169</v>
       </c>
       <c r="U10" t="n">
-        <v>2761</v>
+        <v>5011</v>
       </c>
       <c r="V10" t="n">
-        <v>16272</v>
+        <v>30790</v>
       </c>
       <c r="W10" t="n">
-        <v>368</v>
+        <v>954</v>
       </c>
       <c r="X10" t="n">
-        <v>450</v>
+        <v>1456</v>
       </c>
       <c r="Y10" t="n">
-        <v>788</v>
+        <v>1539</v>
       </c>
       <c r="Z10" t="n">
-        <v>864</v>
+        <v>2387</v>
       </c>
       <c r="AA10" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AB10" t="n">
-        <v>24453</v>
+        <v>34403</v>
       </c>
       <c r="AC10" t="n">
-        <v>22</v>
+        <v>13571</v>
       </c>
       <c r="AD10" t="n">
-        <v>21518</v>
+        <v>40243</v>
       </c>
       <c r="AE10" t="n">
-        <v>6584</v>
+        <v>21513</v>
       </c>
       <c r="AF10" t="n">
-        <v>895</v>
+        <v>1784</v>
       </c>
       <c r="AG10" t="n">
-        <v>131</v>
+        <v>632</v>
       </c>
       <c r="AH10" t="n">
-        <v>192697</v>
+        <v>376354</v>
       </c>
       <c r="AI10" t="n">
-        <v>256</v>
+        <v>920</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3013</v>
+        <v>10195</v>
       </c>
       <c r="AK10" t="n">
-        <v>451</v>
+        <v>1303</v>
       </c>
       <c r="AL10" t="n">
-        <v>4149</v>
+        <v>13080</v>
       </c>
       <c r="AM10" t="n">
-        <v>6665</v>
+        <v>14304</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>806</v>
       </c>
       <c r="AO10" t="n">
-        <v>1444</v>
+        <v>4095</v>
       </c>
       <c r="AP10" t="n">
-        <v>1857</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>930</v>
+        <v>1168</v>
       </c>
       <c r="C11" t="n">
-        <v>31014</v>
+        <v>47683</v>
       </c>
       <c r="D11" t="n">
-        <v>512</v>
+        <v>1273</v>
       </c>
       <c r="E11" t="n">
-        <v>906</v>
+        <v>1309</v>
       </c>
       <c r="F11" t="n">
-        <v>274</v>
+        <v>543</v>
       </c>
       <c r="G11" t="n">
-        <v>119</v>
+        <v>793</v>
       </c>
       <c r="H11" t="n">
-        <v>2732</v>
+        <v>5467</v>
       </c>
       <c r="I11" t="n">
-        <v>1966</v>
+        <v>1841</v>
       </c>
       <c r="J11" t="n">
-        <v>2154</v>
+        <v>4629</v>
       </c>
       <c r="K11" t="n">
-        <v>260</v>
+        <v>987</v>
       </c>
       <c r="L11" t="n">
-        <v>41378</v>
+        <v>61656</v>
       </c>
       <c r="M11" t="n">
-        <v>3329</v>
+        <v>11133</v>
       </c>
       <c r="N11" t="n">
-        <v>1462</v>
+        <v>5649</v>
       </c>
       <c r="O11" t="n">
-        <v>8095</v>
+        <v>17549</v>
       </c>
       <c r="P11" t="n">
-        <v>11589</v>
+        <v>25740</v>
       </c>
       <c r="Q11" t="n">
-        <v>1324</v>
+        <v>2155</v>
       </c>
       <c r="R11" t="n">
-        <v>91</v>
+        <v>277</v>
       </c>
       <c r="S11" t="n">
-        <v>1854</v>
+        <v>2366</v>
       </c>
       <c r="T11" t="n">
-        <v>9410</v>
+        <v>11064</v>
       </c>
       <c r="U11" t="n">
-        <v>3038</v>
+        <v>6251</v>
       </c>
       <c r="V11" t="n">
-        <v>17879</v>
+        <v>34891</v>
       </c>
       <c r="W11" t="n">
-        <v>435</v>
+        <v>1402</v>
       </c>
       <c r="X11" t="n">
-        <v>710</v>
+        <v>1860</v>
       </c>
       <c r="Y11" t="n">
-        <v>765</v>
+        <v>1856</v>
       </c>
       <c r="Z11" t="n">
-        <v>1092</v>
-      </c>
-      <c r="AA11" t="inlineStr"/>
+        <v>2615</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1</v>
+      </c>
       <c r="AB11" t="n">
-        <v>26520</v>
+        <v>36842</v>
       </c>
       <c r="AC11" t="n">
-        <v>5235</v>
+        <v>17462</v>
       </c>
       <c r="AD11" t="n">
-        <v>24885</v>
+        <v>49850</v>
       </c>
       <c r="AE11" t="n">
-        <v>9781</v>
+        <v>29619</v>
       </c>
       <c r="AF11" t="n">
-        <v>848</v>
+        <v>2351</v>
       </c>
       <c r="AG11" t="n">
-        <v>408</v>
+        <v>858</v>
       </c>
       <c r="AH11" t="n">
-        <v>235139</v>
+        <v>450215</v>
       </c>
       <c r="AI11" t="n">
-        <v>697</v>
+        <v>1030</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4486</v>
+        <v>12222</v>
       </c>
       <c r="AK11" t="n">
-        <v>654</v>
+        <v>1675</v>
       </c>
       <c r="AL11" t="n">
-        <v>5949</v>
+        <v>16727</v>
       </c>
       <c r="AM11" t="n">
-        <v>7490</v>
-      </c>
-      <c r="AN11" t="inlineStr"/>
+        <v>17098</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1506</v>
+      </c>
       <c r="AO11" t="n">
-        <v>2441</v>
+        <v>5894</v>
       </c>
       <c r="AP11" t="n">
-        <v>2427</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1108</v>
+        <v>1635</v>
       </c>
       <c r="C12" t="n">
-        <v>30696</v>
+        <v>57754</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>1460</v>
       </c>
       <c r="E12" t="n">
-        <v>634</v>
+        <v>1405</v>
       </c>
       <c r="F12" t="n">
-        <v>232</v>
+        <v>939</v>
       </c>
       <c r="G12" t="n">
-        <v>245</v>
+        <v>926</v>
       </c>
       <c r="H12" t="n">
-        <v>3316</v>
+        <v>6373</v>
       </c>
       <c r="I12" t="n">
-        <v>1949</v>
+        <v>1898</v>
       </c>
       <c r="J12" t="n">
-        <v>2394</v>
+        <v>4884</v>
       </c>
       <c r="K12" t="n">
-        <v>382</v>
+        <v>998</v>
       </c>
       <c r="L12" t="n">
-        <v>44723</v>
+        <v>63740</v>
       </c>
       <c r="M12" t="n">
-        <v>4081</v>
+        <v>12985</v>
       </c>
       <c r="N12" t="n">
-        <v>1831</v>
+        <v>7575</v>
       </c>
       <c r="O12" t="n">
-        <v>9633</v>
+        <v>20666</v>
       </c>
       <c r="P12" t="n">
-        <v>18283</v>
+        <v>28185</v>
       </c>
       <c r="Q12" t="n">
-        <v>1447</v>
+        <v>2320</v>
       </c>
       <c r="R12" t="n">
-        <v>89</v>
+        <v>310</v>
       </c>
       <c r="S12" t="n">
-        <v>1959</v>
+        <v>3032</v>
       </c>
       <c r="T12" t="n">
-        <v>8693</v>
+        <v>12896</v>
       </c>
       <c r="U12" t="n">
-        <v>3443</v>
+        <v>6486</v>
       </c>
       <c r="V12" t="n">
-        <v>20060</v>
+        <v>35282</v>
       </c>
       <c r="W12" t="n">
-        <v>617</v>
+        <v>1200</v>
       </c>
       <c r="X12" t="n">
-        <v>1220</v>
+        <v>2050</v>
       </c>
       <c r="Y12" t="n">
-        <v>1044</v>
+        <v>2132</v>
       </c>
       <c r="Z12" t="n">
-        <v>1205</v>
+        <v>2110</v>
       </c>
       <c r="AA12" t="n">
         <v>2</v>
       </c>
       <c r="AB12" t="n">
-        <v>27490</v>
+        <v>38358</v>
       </c>
       <c r="AC12" t="n">
-        <v>7143</v>
+        <v>22423</v>
       </c>
       <c r="AD12" t="n">
-        <v>30516</v>
+        <v>54259</v>
       </c>
       <c r="AE12" t="n">
-        <v>10460</v>
+        <v>32537</v>
       </c>
       <c r="AF12" t="n">
-        <v>1305</v>
+        <v>2519</v>
       </c>
       <c r="AG12" t="n">
-        <v>539</v>
+        <v>913</v>
       </c>
       <c r="AH12" t="n">
-        <v>265469</v>
+        <v>501576</v>
       </c>
       <c r="AI12" t="n">
-        <v>727</v>
+        <v>1164</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5094</v>
+        <v>14086</v>
       </c>
       <c r="AK12" t="n">
-        <v>731</v>
+        <v>1477</v>
       </c>
       <c r="AL12" t="n">
-        <v>7509</v>
+        <v>19969</v>
       </c>
       <c r="AM12" t="n">
-        <v>9782</v>
+        <v>19928</v>
       </c>
       <c r="AN12" t="n">
-        <v>4</v>
+        <v>1347</v>
       </c>
       <c r="AO12" t="n">
-        <v>2608</v>
+        <v>8430</v>
       </c>
       <c r="AP12" t="n">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1040</v>
-      </c>
-      <c r="C13" t="n">
-        <v>32109</v>
-      </c>
-      <c r="D13" t="n">
-        <v>690</v>
-      </c>
-      <c r="E13" t="n">
-        <v>770</v>
-      </c>
-      <c r="F13" t="n">
-        <v>184</v>
-      </c>
-      <c r="G13" t="n">
-        <v>277</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3775</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1676</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2743</v>
-      </c>
-      <c r="K13" t="n">
-        <v>754</v>
-      </c>
-      <c r="L13" t="n">
-        <v>45503</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4500</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2460</v>
-      </c>
-      <c r="O13" t="n">
-        <v>10537</v>
-      </c>
-      <c r="P13" t="n">
-        <v>19260</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1544</v>
-      </c>
-      <c r="R13" t="n">
-        <v>101</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1488</v>
-      </c>
-      <c r="T13" t="n">
-        <v>8746</v>
-      </c>
-      <c r="U13" t="n">
-        <v>4253</v>
-      </c>
-      <c r="V13" t="n">
-        <v>21993</v>
-      </c>
-      <c r="W13" t="n">
-        <v>688</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1246</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1285</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1803</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>29470</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8667</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>34657</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13012</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1387</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>377</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>290647</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>830</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>6476</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>898</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>8839</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>11401</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>3236</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1031</v>
-      </c>
-      <c r="C14" t="n">
-        <v>34226</v>
-      </c>
-      <c r="D14" t="n">
-        <v>736</v>
-      </c>
-      <c r="E14" t="n">
-        <v>853</v>
-      </c>
-      <c r="F14" t="n">
-        <v>347</v>
-      </c>
-      <c r="G14" t="n">
-        <v>466</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4263</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1646</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3135</v>
-      </c>
-      <c r="K14" t="n">
-        <v>997</v>
-      </c>
-      <c r="L14" t="n">
-        <v>47224</v>
-      </c>
-      <c r="M14" t="n">
-        <v>7975</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3102</v>
-      </c>
-      <c r="O14" t="n">
-        <v>12547</v>
-      </c>
-      <c r="P14" t="n">
-        <v>21297</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1595</v>
-      </c>
-      <c r="R14" t="n">
-        <v>126</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1623</v>
-      </c>
-      <c r="T14" t="n">
-        <v>9275</v>
-      </c>
-      <c r="U14" t="n">
-        <v>4542</v>
-      </c>
-      <c r="V14" t="n">
-        <v>24328</v>
-      </c>
-      <c r="W14" t="n">
-        <v>841</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1422</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1478</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1367</v>
-      </c>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="n">
-        <v>31417</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10475</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>37751</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>16663</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1390</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>392</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>323878</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>816</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>7370</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1027</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>9782</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>12049</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1096</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>3188</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>4020</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1036</v>
-      </c>
-      <c r="C15" t="n">
-        <v>41975</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1004</v>
-      </c>
-      <c r="E15" t="n">
-        <v>954</v>
-      </c>
-      <c r="F15" t="n">
-        <v>307</v>
-      </c>
-      <c r="G15" t="n">
-        <v>636</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4346</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1772</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3799</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1202</v>
-      </c>
-      <c r="L15" t="n">
-        <v>52582</v>
-      </c>
-      <c r="M15" t="n">
-        <v>8147</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4902</v>
-      </c>
-      <c r="O15" t="n">
-        <v>14585</v>
-      </c>
-      <c r="P15" t="n">
-        <v>20689</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1816</v>
-      </c>
-      <c r="R15" t="n">
-        <v>161</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2106</v>
-      </c>
-      <c r="T15" t="n">
-        <v>10169</v>
-      </c>
-      <c r="U15" t="n">
-        <v>5011</v>
-      </c>
-      <c r="V15" t="n">
-        <v>30790</v>
-      </c>
-      <c r="W15" t="n">
-        <v>954</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1456</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1539</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>2387</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>34403</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>13571</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>40243</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21513</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1784</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>632</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>376354</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>920</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>10195</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1303</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>13080</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>14304</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>806</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>4095</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>5177</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1168</v>
-      </c>
-      <c r="C16" t="n">
-        <v>47683</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1273</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1309</v>
-      </c>
-      <c r="F16" t="n">
-        <v>543</v>
-      </c>
-      <c r="G16" t="n">
-        <v>793</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5467</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1841</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4629</v>
-      </c>
-      <c r="K16" t="n">
-        <v>987</v>
-      </c>
-      <c r="L16" t="n">
-        <v>61656</v>
-      </c>
-      <c r="M16" t="n">
-        <v>11133</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5649</v>
-      </c>
-      <c r="O16" t="n">
-        <v>17549</v>
-      </c>
-      <c r="P16" t="n">
-        <v>25740</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2155</v>
-      </c>
-      <c r="R16" t="n">
-        <v>277</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2366</v>
-      </c>
-      <c r="T16" t="n">
-        <v>11064</v>
-      </c>
-      <c r="U16" t="n">
-        <v>6251</v>
-      </c>
-      <c r="V16" t="n">
-        <v>34891</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1402</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1860</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1856</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>2615</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>36842</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>17462</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>49850</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>29619</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>2351</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>858</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>450215</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1030</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>12222</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1675</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>16727</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>17098</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>1506</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>5894</v>
-      </c>
-      <c r="AP16" t="n">
         <v>4923</v>
       </c>
     </row>
